--- a/biology/Botanique/Sucre_muscovado/Sucre_muscovado.xlsx
+++ b/biology/Botanique/Sucre_muscovado/Sucre_muscovado.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Le sucre muscovado (ou « mascobado ») est un sucre de canne complet, non raffiné en provenance des Philippines et de l’Île Maurice. Il est de couleur brun foncé avec une forte teneur en mélasse, ce qui lui procure un goût prononcé. Ce dernier possède une texture dite binaire, avec des gros et des petits morceaux.
 Ce sucre était fortement apprécié de Napoléon Bonaparte.
